--- a/public/echeances.xlsx
+++ b/public/echeances.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>Numéro</t>
   </si>
@@ -35,40 +35,184 @@
     <t>Mensualité</t>
   </si>
   <si>
-    <t>2024-06-06</t>
-  </si>
-  <si>
-    <t>2024-07-06</t>
-  </si>
-  <si>
-    <t>2024-08-06</t>
-  </si>
-  <si>
-    <t>2024-09-06</t>
-  </si>
-  <si>
-    <t>2024-10-06</t>
-  </si>
-  <si>
-    <t>2024-11-06</t>
-  </si>
-  <si>
-    <t>2024-12-06</t>
-  </si>
-  <si>
-    <t>2025-01-06</t>
-  </si>
-  <si>
-    <t>2025-02-06</t>
-  </si>
-  <si>
-    <t>2025-03-06</t>
-  </si>
-  <si>
-    <t>2025-04-06</t>
-  </si>
-  <si>
-    <t>2025-05-06</t>
+    <t>2024-06-09</t>
+  </si>
+  <si>
+    <t>2024-07-09</t>
+  </si>
+  <si>
+    <t>2024-08-09</t>
+  </si>
+  <si>
+    <t>2024-09-09</t>
+  </si>
+  <si>
+    <t>2024-10-09</t>
+  </si>
+  <si>
+    <t>2024-11-09</t>
+  </si>
+  <si>
+    <t>2024-12-09</t>
+  </si>
+  <si>
+    <t>2025-01-09</t>
+  </si>
+  <si>
+    <t>2025-02-09</t>
+  </si>
+  <si>
+    <t>2025-03-09</t>
+  </si>
+  <si>
+    <t>2025-04-09</t>
+  </si>
+  <si>
+    <t>2025-05-09</t>
+  </si>
+  <si>
+    <t>2025-06-09</t>
+  </si>
+  <si>
+    <t>2025-07-09</t>
+  </si>
+  <si>
+    <t>2025-08-09</t>
+  </si>
+  <si>
+    <t>2025-09-09</t>
+  </si>
+  <si>
+    <t>2025-10-09</t>
+  </si>
+  <si>
+    <t>2025-11-09</t>
+  </si>
+  <si>
+    <t>2025-12-09</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>2026-02-09</t>
+  </si>
+  <si>
+    <t>2026-03-09</t>
+  </si>
+  <si>
+    <t>2026-04-09</t>
+  </si>
+  <si>
+    <t>2026-05-09</t>
+  </si>
+  <si>
+    <t>2026-06-09</t>
+  </si>
+  <si>
+    <t>2026-07-09</t>
+  </si>
+  <si>
+    <t>2026-08-09</t>
+  </si>
+  <si>
+    <t>2026-09-09</t>
+  </si>
+  <si>
+    <t>2026-10-09</t>
+  </si>
+  <si>
+    <t>2026-11-09</t>
+  </si>
+  <si>
+    <t>2026-12-09</t>
+  </si>
+  <si>
+    <t>2027-01-09</t>
+  </si>
+  <si>
+    <t>2027-02-09</t>
+  </si>
+  <si>
+    <t>2027-03-09</t>
+  </si>
+  <si>
+    <t>2027-04-09</t>
+  </si>
+  <si>
+    <t>2027-05-09</t>
+  </si>
+  <si>
+    <t>2027-06-09</t>
+  </si>
+  <si>
+    <t>2027-07-09</t>
+  </si>
+  <si>
+    <t>2027-08-09</t>
+  </si>
+  <si>
+    <t>2027-09-09</t>
+  </si>
+  <si>
+    <t>2027-10-09</t>
+  </si>
+  <si>
+    <t>2027-11-09</t>
+  </si>
+  <si>
+    <t>2027-12-09</t>
+  </si>
+  <si>
+    <t>2028-01-09</t>
+  </si>
+  <si>
+    <t>2028-02-09</t>
+  </si>
+  <si>
+    <t>2028-03-09</t>
+  </si>
+  <si>
+    <t>2028-04-09</t>
+  </si>
+  <si>
+    <t>2028-05-09</t>
+  </si>
+  <si>
+    <t>2028-06-09</t>
+  </si>
+  <si>
+    <t>2028-07-09</t>
+  </si>
+  <si>
+    <t>2028-08-09</t>
+  </si>
+  <si>
+    <t>2028-09-09</t>
+  </si>
+  <si>
+    <t>2028-10-09</t>
+  </si>
+  <si>
+    <t>2028-11-09</t>
+  </si>
+  <si>
+    <t>2028-12-09</t>
+  </si>
+  <si>
+    <t>2029-01-09</t>
+  </si>
+  <si>
+    <t>2029-02-09</t>
+  </si>
+  <si>
+    <t>2029-03-09</t>
+  </si>
+  <si>
+    <t>2029-04-09</t>
+  </si>
+  <si>
+    <t>2029-05-09</t>
   </si>
 </sst>
 </file>
@@ -408,7 +552,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,16 +588,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>4072.04075609</v>
+        <v>716.64007647141</v>
       </c>
       <c r="D2">
-        <v>45927.95924391</v>
+        <v>49283.359923529</v>
       </c>
       <c r="E2">
-        <v>208.33333333333</v>
+        <v>250.0</v>
       </c>
       <c r="F2">
-        <v>4280.3740894234</v>
+        <v>966.64007647141</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -464,16 +608,16 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>4089.0075925737</v>
+        <v>720.22327685377</v>
       </c>
       <c r="D3">
-        <v>41838.951651336</v>
+        <v>48563.136646675</v>
       </c>
       <c r="E3">
-        <v>191.36649684962</v>
+        <v>246.41679961764</v>
       </c>
       <c r="F3">
-        <v>4280.3740894234</v>
+        <v>966.64007647141</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -484,16 +628,16 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>4106.0451242095</v>
+        <v>723.82439323804</v>
       </c>
       <c r="D4">
-        <v>37732.906527127</v>
+        <v>47839.312253437</v>
       </c>
       <c r="E4">
-        <v>174.3289652139</v>
+        <v>242.81568323337</v>
       </c>
       <c r="F4">
-        <v>4280.3740894234</v>
+        <v>966.64007647141</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -504,16 +648,16 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>4123.1536455603</v>
+        <v>727.44351520423</v>
       </c>
       <c r="D5">
-        <v>33609.752881566</v>
+        <v>47111.868738233</v>
       </c>
       <c r="E5">
-        <v>157.22044386303</v>
+        <v>239.19656126718</v>
       </c>
       <c r="F5">
-        <v>4280.3740894234</v>
+        <v>966.64007647141</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -524,16 +668,16 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>4140.3334524168</v>
+        <v>731.08073278025</v>
       </c>
       <c r="D6">
-        <v>29469.41942915</v>
+        <v>46380.788005452</v>
       </c>
       <c r="E6">
-        <v>140.04063700653</v>
+        <v>235.55934369116</v>
       </c>
       <c r="F6">
-        <v>4280.3740894234</v>
+        <v>966.64007647141</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -544,16 +688,16 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>4157.5848418019</v>
+        <v>734.73613644415</v>
       </c>
       <c r="D7">
-        <v>25311.834587348</v>
+        <v>45646.051869008</v>
       </c>
       <c r="E7">
-        <v>122.78924762146</v>
+        <v>231.90394002726</v>
       </c>
       <c r="F7">
-        <v>4280.3740894234</v>
+        <v>966.64007647141</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -564,16 +708,16 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>4174.9081119761</v>
+        <v>738.40981712637</v>
       </c>
       <c r="D8">
-        <v>21136.926475372</v>
+        <v>44907.642051882</v>
       </c>
       <c r="E8">
-        <v>105.46597744728</v>
+        <v>228.23025934504</v>
       </c>
       <c r="F8">
-        <v>4280.3740894234</v>
+        <v>966.64007647141</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -584,16 +728,16 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>4192.3035624427</v>
+        <v>742.10186621201</v>
       </c>
       <c r="D9">
-        <v>16944.622912929</v>
+        <v>44165.54018567</v>
       </c>
       <c r="E9">
-        <v>88.070526980715</v>
+        <v>224.53821025941</v>
       </c>
       <c r="F9">
-        <v>4280.3740894234</v>
+        <v>966.64007647141</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -604,16 +748,16 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>4209.7714939528</v>
+        <v>745.81237554306</v>
       </c>
       <c r="D10">
-        <v>12734.851418976</v>
+        <v>43419.727810127</v>
       </c>
       <c r="E10">
-        <v>70.602595470537</v>
+        <v>220.82770092835</v>
       </c>
       <c r="F10">
-        <v>4280.3740894234</v>
+        <v>966.64007647141</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -624,16 +768,16 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>4227.312208511</v>
+        <v>749.54143742078</v>
       </c>
       <c r="D11">
-        <v>8507.5392104651</v>
+        <v>42670.186372706</v>
       </c>
       <c r="E11">
-        <v>53.0618809124</v>
+        <v>217.09863905063</v>
       </c>
       <c r="F11">
-        <v>4280.3740894234</v>
+        <v>966.64007647141</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -644,16 +788,16 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>4244.9260093798</v>
+        <v>753.28914460788</v>
       </c>
       <c r="D12">
-        <v>4262.6132010853</v>
+        <v>41916.897228098</v>
       </c>
       <c r="E12">
-        <v>35.448080043605</v>
+        <v>213.35093186353</v>
       </c>
       <c r="F12">
-        <v>4280.3740894234</v>
+        <v>966.64007647141</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -664,33 +808,993 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>4262.6132010855</v>
+        <v>757.05559033092</v>
       </c>
       <c r="D13">
-        <v>0.0</v>
+        <v>41159.841637767</v>
       </c>
       <c r="E13">
-        <v>17.760888337856</v>
+        <v>209.58448614049</v>
       </c>
       <c r="F13">
-        <v>4280.3740894234</v>
+        <v>966.64007647141</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
       <c r="C14">
+        <v>760.84086828258</v>
+      </c>
+      <c r="D14">
+        <v>40399.000769485</v>
+      </c>
+      <c r="E14">
+        <v>205.79920818884</v>
+      </c>
+      <c r="F14">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>764.64507262399</v>
+      </c>
+      <c r="D15">
+        <v>39634.355696861</v>
+      </c>
+      <c r="E15">
+        <v>201.99500384742</v>
+      </c>
+      <c r="F15">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>768.46829798711</v>
+      </c>
+      <c r="D16">
+        <v>38865.887398873</v>
+      </c>
+      <c r="E16">
+        <v>198.1717784843</v>
+      </c>
+      <c r="F16">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>772.31063947705</v>
+      </c>
+      <c r="D17">
+        <v>38093.576759396</v>
+      </c>
+      <c r="E17">
+        <v>194.32943699437</v>
+      </c>
+      <c r="F17">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>776.17219267443</v>
+      </c>
+      <c r="D18">
+        <v>37317.404566722</v>
+      </c>
+      <c r="E18">
+        <v>190.46788379698</v>
+      </c>
+      <c r="F18">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>780.0530536378</v>
+      </c>
+      <c r="D19">
+        <v>36537.351513084</v>
+      </c>
+      <c r="E19">
+        <v>186.58702283361</v>
+      </c>
+      <c r="F19">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>783.95331890599</v>
+      </c>
+      <c r="D20">
+        <v>35753.398194178</v>
+      </c>
+      <c r="E20">
+        <v>182.68675756542</v>
+      </c>
+      <c r="F20">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>787.87308550052</v>
+      </c>
+      <c r="D21">
+        <v>34965.525108678</v>
+      </c>
+      <c r="E21">
+        <v>178.76699097089</v>
+      </c>
+      <c r="F21">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>791.81245092803</v>
+      </c>
+      <c r="D22">
+        <v>34173.71265775</v>
+      </c>
+      <c r="E22">
+        <v>174.82762554339</v>
+      </c>
+      <c r="F22">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>795.77151318267</v>
+      </c>
+      <c r="D23">
+        <v>33377.941144567</v>
+      </c>
+      <c r="E23">
+        <v>170.86856328875</v>
+      </c>
+      <c r="F23">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>799.75037074858</v>
+      </c>
+      <c r="D24">
+        <v>32578.190773818</v>
+      </c>
+      <c r="E24">
+        <v>166.88970572283</v>
+      </c>
+      <c r="F24">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>803.74912260232</v>
+      </c>
+      <c r="D25">
+        <v>31774.441651216</v>
+      </c>
+      <c r="E25">
+        <v>162.89095386909</v>
+      </c>
+      <c r="F25">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>807.76786821533</v>
+      </c>
+      <c r="D26">
+        <v>30966.673783001</v>
+      </c>
+      <c r="E26">
+        <v>158.87220825608</v>
+      </c>
+      <c r="F26">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>811.80670755641</v>
+      </c>
+      <c r="D27">
+        <v>30154.867075444</v>
+      </c>
+      <c r="E27">
+        <v>154.833368915</v>
+      </c>
+      <c r="F27">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>815.86574109419</v>
+      </c>
+      <c r="D28">
+        <v>29339.00133435</v>
+      </c>
+      <c r="E28">
+        <v>150.77433537722</v>
+      </c>
+      <c r="F28">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>819.94506979966</v>
+      </c>
+      <c r="D29">
+        <v>28519.05626455</v>
+      </c>
+      <c r="E29">
+        <v>146.69500667175</v>
+      </c>
+      <c r="F29">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30">
+        <v>824.04479514866</v>
+      </c>
+      <c r="D30">
+        <v>27695.011469402</v>
+      </c>
+      <c r="E30">
+        <v>142.59528132275</v>
+      </c>
+      <c r="F30">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31">
+        <v>828.1650191244</v>
+      </c>
+      <c r="D31">
+        <v>26866.846450277</v>
+      </c>
+      <c r="E31">
+        <v>138.47505734701</v>
+      </c>
+      <c r="F31">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32">
+        <v>832.30584422003</v>
+      </c>
+      <c r="D32">
+        <v>26034.540606057</v>
+      </c>
+      <c r="E32">
+        <v>134.33423225139</v>
+      </c>
+      <c r="F32">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33">
+        <v>836.46737344113</v>
+      </c>
+      <c r="D33">
+        <v>25198.073232616</v>
+      </c>
+      <c r="E33">
+        <v>130.17270303029</v>
+      </c>
+      <c r="F33">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34">
+        <v>840.64971030833</v>
+      </c>
+      <c r="D34">
+        <v>24357.423522308</v>
+      </c>
+      <c r="E34">
+        <v>125.99036616308</v>
+      </c>
+      <c r="F34">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35">
+        <v>844.85295885987</v>
+      </c>
+      <c r="D35">
+        <v>23512.570563448</v>
+      </c>
+      <c r="E35">
+        <v>121.78711761154</v>
+      </c>
+      <c r="F35">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>849.07722365417</v>
+      </c>
+      <c r="D36">
+        <v>22663.493339794</v>
+      </c>
+      <c r="E36">
+        <v>117.56285281724</v>
+      </c>
+      <c r="F36">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37">
+        <v>853.32260977244</v>
+      </c>
+      <c r="D37">
+        <v>21810.170730021</v>
+      </c>
+      <c r="E37">
+        <v>113.31746669897</v>
+      </c>
+      <c r="F37">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38">
+        <v>857.58922282131</v>
+      </c>
+      <c r="D38">
+        <v>20952.5815072</v>
+      </c>
+      <c r="E38">
+        <v>109.05085365011</v>
+      </c>
+      <c r="F38">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39">
+        <v>861.87716893541</v>
+      </c>
+      <c r="D39">
+        <v>20090.704338265</v>
+      </c>
+      <c r="E39">
+        <v>104.762907536</v>
+      </c>
+      <c r="F39">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40">
+        <v>866.18655478009</v>
+      </c>
+      <c r="D40">
+        <v>19224.517783485</v>
+      </c>
+      <c r="E40">
+        <v>100.45352169132</v>
+      </c>
+      <c r="F40">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41">
+        <v>870.51748755399</v>
+      </c>
+      <c r="D41">
+        <v>18354.000295931</v>
+      </c>
+      <c r="E41">
+        <v>96.122588917423</v>
+      </c>
+      <c r="F41">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42">
+        <v>874.87007499176</v>
+      </c>
+      <c r="D42">
+        <v>17479.130220939</v>
+      </c>
+      <c r="E42">
+        <v>91.770001479653</v>
+      </c>
+      <c r="F42">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43">
+        <v>879.24442536672</v>
+      </c>
+      <c r="D43">
+        <v>16599.885795572</v>
+      </c>
+      <c r="E43">
+        <v>87.395651104694</v>
+      </c>
+      <c r="F43">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44">
+        <v>883.64064749355</v>
+      </c>
+      <c r="D44">
+        <v>15716.245148079</v>
+      </c>
+      <c r="E44">
+        <v>82.999428977861</v>
+      </c>
+      <c r="F44">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45">
+        <v>888.05885073102</v>
+      </c>
+      <c r="D45">
+        <v>14828.186297348</v>
+      </c>
+      <c r="E45">
+        <v>78.581225740393</v>
+      </c>
+      <c r="F45">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46">
+        <v>892.49914498468</v>
+      </c>
+      <c r="D46">
+        <v>13935.687152363</v>
+      </c>
+      <c r="E46">
+        <v>74.140931486738</v>
+      </c>
+      <c r="F46">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47">
+        <v>896.9616407096</v>
+      </c>
+      <c r="D47">
+        <v>13038.725511653</v>
+      </c>
+      <c r="E47">
+        <v>69.678435761814</v>
+      </c>
+      <c r="F47">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48">
+        <v>901.44644891315</v>
+      </c>
+      <c r="D48">
+        <v>12137.27906274</v>
+      </c>
+      <c r="E48">
+        <v>65.193627558266</v>
+      </c>
+      <c r="F48">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>905.95368115771</v>
+      </c>
+      <c r="D49">
+        <v>11231.325381582</v>
+      </c>
+      <c r="E49">
+        <v>60.686395313701</v>
+      </c>
+      <c r="F49">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50">
+        <v>910.4834495635</v>
+      </c>
+      <c r="D50">
+        <v>10320.841932019</v>
+      </c>
+      <c r="E50">
+        <v>56.156626907912</v>
+      </c>
+      <c r="F50">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51">
+        <v>915.03586681132</v>
+      </c>
+      <c r="D51">
+        <v>9405.8060652076</v>
+      </c>
+      <c r="E51">
+        <v>51.604209660094</v>
+      </c>
+      <c r="F51">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52">
+        <v>919.61104614538</v>
+      </c>
+      <c r="D52">
+        <v>8486.1950190622</v>
+      </c>
+      <c r="E52">
+        <v>47.029030326038</v>
+      </c>
+      <c r="F52">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53">
+        <v>924.2091013761</v>
+      </c>
+      <c r="D53">
+        <v>7561.9859176861</v>
+      </c>
+      <c r="E53">
+        <v>42.430975095311</v>
+      </c>
+      <c r="F53">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54">
+        <v>928.83014688298</v>
+      </c>
+      <c r="D54">
+        <v>6633.1557708031</v>
+      </c>
+      <c r="E54">
+        <v>37.80992958843</v>
+      </c>
+      <c r="F54">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55">
+        <v>933.4742976174</v>
+      </c>
+      <c r="D55">
+        <v>5699.6814731857</v>
+      </c>
+      <c r="E55">
+        <v>33.165778854016</v>
+      </c>
+      <c r="F55">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56">
+        <v>938.14166910549</v>
+      </c>
+      <c r="D56">
+        <v>4761.5398040802</v>
+      </c>
+      <c r="E56">
+        <v>28.498407365929</v>
+      </c>
+      <c r="F56">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57">
+        <v>942.83237745101</v>
+      </c>
+      <c r="D57">
+        <v>3818.7074266292</v>
+      </c>
+      <c r="E57">
+        <v>23.807699020401</v>
+      </c>
+      <c r="F57">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58">
+        <v>947.54653933827</v>
+      </c>
+      <c r="D58">
+        <v>2871.160887291</v>
+      </c>
+      <c r="E58">
+        <v>19.093537133146</v>
+      </c>
+      <c r="F58">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59">
+        <v>952.28427203496</v>
+      </c>
+      <c r="D59">
+        <v>1918.876615256</v>
+      </c>
+      <c r="E59">
+        <v>14.355804436455</v>
+      </c>
+      <c r="F59">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60">
+        <v>957.04569339513</v>
+      </c>
+      <c r="D60">
+        <v>961.83092186086</v>
+      </c>
+      <c r="E60">
+        <v>9.59438307628</v>
+      </c>
+      <c r="F60">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61">
+        <v>961.83092186211</v>
+      </c>
+      <c r="D61">
+        <v>0.0</v>
+      </c>
+      <c r="E61">
+        <v>4.8091546093043</v>
+      </c>
+      <c r="F61">
+        <v>966.64007647141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="C62">
         <v>50000.0</v>
       </c>
-      <c r="D14">
+      <c r="D62">
         <v>0</v>
       </c>
-      <c r="E14">
-        <v>1364.4890730803</v>
-      </c>
-      <c r="F14">
-        <v>51364.48907308</v>
+      <c r="E62">
+        <v>7998.4045882836</v>
+      </c>
+      <c r="F62">
+        <v>57998.404588285</v>
       </c>
     </row>
   </sheetData>
